--- a/configurations_prove.xlsx
+++ b/configurations_prove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DD94A-DFBA-4230-A646-58A6749F2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7B07F-74DE-455A-BDB2-F183DBD73ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798ACEC-29E5-45B8-A739-40F95B81E777}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,8 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -496,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -511,293 +512,6 @@
         <v>1000</v>
       </c>
       <c r="M2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3">
-        <v>200000</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>0.3</v>
-      </c>
-      <c r="K4">
-        <v>200000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10000</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
-      </c>
-      <c r="K5">
-        <v>200000</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>0.3</v>
-      </c>
-      <c r="K6">
-        <v>200000</v>
-      </c>
-      <c r="L6">
-        <v>1000</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>0.3</v>
-      </c>
-      <c r="K7">
-        <v>200000</v>
-      </c>
-      <c r="L7">
-        <v>1000</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0.3</v>
-      </c>
-      <c r="K8">
-        <v>200000</v>
-      </c>
-      <c r="L8">
-        <v>1000</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10000</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>0.3</v>
-      </c>
-      <c r="K9">
-        <v>200000</v>
-      </c>
-      <c r="L9">
-        <v>1000</v>
-      </c>
-      <c r="M9">
         <v>10</v>
       </c>
     </row>

--- a/configurations_prove.xlsx
+++ b/configurations_prove.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7B07F-74DE-455A-BDB2-F183DBD73ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC59BB-C324-4281-B15D-2F567FB8DEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>configuration</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>best_base_stock</t>
   </si>
 </sst>
 </file>
@@ -108,11 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798ACEC-29E5-45B8-A739-40F95B81E777}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +478,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1</f>
         <v>1</v>
@@ -513,6 +522,144 @@
       </c>
       <c r="M2">
         <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>200000</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A5" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+      <c r="K4">
+        <v>200000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>200000</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/configurations_prove.xlsx
+++ b/configurations_prove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC59BB-C324-4281-B15D-2F567FB8DEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83EF58-3B0B-4FE3-AD1B-EA61F0601631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>0.3</v>
       </c>
       <c r="K2">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -560,7 +560,7 @@
         <v>0.3</v>
       </c>
       <c r="K3">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -605,7 +605,7 @@
         <v>0.3</v>
       </c>
       <c r="K4">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -650,7 +650,7 @@
         <v>0.3</v>
       </c>
       <c r="K5">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="L5">
         <v>1000</v>

--- a/configurations_prove.xlsx
+++ b/configurations_prove.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC59BB-C324-4281-B15D-2F567FB8DEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEEB873-3C4B-4296-AB14-CF23BCC55E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
@@ -111,11 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798ACEC-29E5-45B8-A739-40F95B81E777}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +481,6 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="B2">
@@ -503,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>1000000</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -512,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K2">
         <v>200000</v>
@@ -522,144 +518,6 @@
       </c>
       <c r="M2">
         <v>10</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>1+A2</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3">
-        <v>200000</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A5" si="0">1+A3</f>
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>0.3</v>
-      </c>
-      <c r="K4">
-        <v>200000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>10000</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
-      </c>
-      <c r="K5">
-        <v>200000</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
